--- a/config/project/board_120KW/BoardReport.xlsx
+++ b/config/project/board_120KW/BoardReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="307">
   <si>
     <t xml:space="preserve">TCCE </t>
   </si>
@@ -1464,35 +1464,6 @@
   </si>
   <si>
     <t>result110</t>
-  </si>
-  <si>
-    <t>GPRS功能</t>
-  </si>
-  <si>
-    <t>能连接、检测到SIM卡、上线、PING外网</t>
-  </si>
-  <si>
-    <t>result111</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>111</t>
-    </r>
   </si>
   <si>
     <t>LED板测试（disp）</t>
@@ -2089,110 +2060,110 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2513,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -2547,27 +2518,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="51" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="57" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="6"/>
@@ -2578,19 +2549,19 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
@@ -2606,71 +2577,71 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="57" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="63" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="63"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
@@ -2690,19 +2661,19 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="18" t="s">
         <v>27</v>
       </c>
@@ -2711,109 +2682,109 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="31" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="42" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="55" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="19" t="s">
         <v>49</v>
       </c>
@@ -2826,20 +2797,20 @@
       <c r="I16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="19" t="s">
         <v>55</v>
       </c>
@@ -2848,20 +2819,20 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="29"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="19" t="s">
         <v>59</v>
       </c>
@@ -2882,15 +2853,15 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
@@ -2903,19 +2874,19 @@
       <c r="I19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="56" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -2928,15 +2899,15 @@
       <c r="I20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="43"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="19" t="s">
         <v>75</v>
       </c>
@@ -2949,15 +2920,15 @@
       <c r="I21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="19" t="s">
         <v>79</v>
       </c>
@@ -2970,17 +2941,17 @@
       <c r="I22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="43"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="19" t="s">
         <v>84</v>
       </c>
@@ -2993,19 +2964,19 @@
       <c r="I23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="56" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="19" t="s">
         <v>90</v>
       </c>
@@ -3018,15 +2989,15 @@
       <c r="I24" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="43"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="19" t="s">
         <v>94</v>
       </c>
@@ -3039,15 +3010,15 @@
       <c r="I25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="43"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="19" t="s">
         <v>98</v>
       </c>
@@ -3060,19 +3031,19 @@
       <c r="I26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="43"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="19" t="s">
         <v>104</v>
       </c>
@@ -3085,19 +3056,19 @@
       <c r="I27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="56" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="19" t="s">
         <v>110</v>
       </c>
@@ -3110,15 +3081,15 @@
       <c r="I28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="43"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="19" t="s">
         <v>114</v>
       </c>
@@ -3131,15 +3102,15 @@
       <c r="I29" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="43"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="19" t="s">
         <v>118</v>
       </c>
@@ -3152,17 +3123,17 @@
       <c r="I30" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="43"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="19" t="s">
         <v>123</v>
       </c>
@@ -3175,19 +3146,19 @@
       <c r="I31" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K31" s="56" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="19" t="s">
         <v>129</v>
       </c>
@@ -3200,15 +3171,15 @@
       <c r="I32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="43"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="19" t="s">
         <v>133</v>
       </c>
@@ -3221,15 +3192,15 @@
       <c r="I33" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="43"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="56"/>
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="19" t="s">
         <v>137</v>
       </c>
@@ -3242,19 +3213,19 @@
       <c r="I34" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="43"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="19" t="s">
         <v>143</v>
       </c>
@@ -3267,19 +3238,19 @@
       <c r="I35" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="56" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="19" t="s">
         <v>149</v>
       </c>
@@ -3292,17 +3263,17 @@
       <c r="I36" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="43"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="30" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="19" t="s">
         <v>143</v>
       </c>
@@ -3315,19 +3286,19 @@
       <c r="I37" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="56" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="19" t="s">
         <v>149</v>
       </c>
@@ -3340,19 +3311,19 @@
       <c r="I38" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="43"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="56"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="19" t="s">
         <v>162</v>
       </c>
@@ -3373,13 +3344,13 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="30" t="s">
+      <c r="A40" s="41"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="19" t="s">
         <v>169</v>
       </c>
@@ -3392,19 +3363,19 @@
       <c r="I40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="41" t="s">
+      <c r="K40" s="54" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="19" t="s">
         <v>175</v>
       </c>
@@ -3417,15 +3388,15 @@
       <c r="I41" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="44"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="57"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="19" t="s">
         <v>179</v>
       </c>
@@ -3438,17 +3409,17 @@
       <c r="I42" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="42"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="30" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="19" t="s">
         <v>184</v>
       </c>
@@ -3469,15 +3440,15 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="19" t="s">
         <v>162</v>
       </c>
@@ -3498,13 +3469,13 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="30" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="19" t="s">
         <v>169</v>
       </c>
@@ -3517,19 +3488,19 @@
       <c r="I45" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="54" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="19" t="s">
         <v>175</v>
       </c>
@@ -3542,15 +3513,15 @@
       <c r="I46" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="J46" s="32"/>
-      <c r="K46" s="44"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="57"/>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="19" t="s">
         <v>179</v>
       </c>
@@ -3563,17 +3534,17 @@
       <c r="I47" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="J47" s="33"/>
-      <c r="K47" s="42"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="55"/>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="30" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="19" t="s">
         <v>184</v>
       </c>
@@ -3594,23 +3565,23 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="18" t="s">
         <v>212</v>
       </c>
@@ -3619,23 +3590,23 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="18" t="s">
         <v>217</v>
       </c>
@@ -3644,23 +3615,23 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
       <c r="J51" s="18" t="s">
         <v>221</v>
       </c>
@@ -3669,25 +3640,25 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="41" t="s">
         <v>223</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="18" t="s">
         <v>227</v>
       </c>
@@ -3696,23 +3667,23 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="18" t="s">
         <v>229</v>
       </c>
@@ -3721,23 +3692,23 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="18" t="s">
         <v>231</v>
       </c>
@@ -3746,191 +3717,191 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="G55" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34" t="s">
+      <c r="G55" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="K55" s="45" t="s">
+      <c r="K55" s="58" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="46"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="59"/>
     </row>
     <row r="57" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="23" t="s">
         <v>240</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H57" s="65"/>
       <c r="I57" s="65"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="46"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="59"/>
     </row>
     <row r="58" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="47"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="60"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="34" t="s">
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="K59" s="43" t="s">
+      <c r="K59" s="56" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="30" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="43"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="56"/>
     </row>
     <row r="61" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G61" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="34" t="s">
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="K61" s="43" t="s">
+      <c r="K61" s="56" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G62" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="43"/>
-    </row>
-    <row r="63" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="56"/>
+    </row>
+    <row r="63" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
       <c r="B63" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
       <c r="J63" s="18" t="s">
         <v>260</v>
       </c>
@@ -3938,74 +3909,74 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+    <row r="64" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
       <c r="B64" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
+      <c r="C64" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="37" t="s">
+      <c r="G64" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="K64" s="20" t="s">
+      <c r="C65" s="40" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="G65" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K65" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K65" s="20" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="66" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
       <c r="J66" s="18" t="s">
         <v>270</v>
       </c>
@@ -4013,404 +3984,253 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+    <row r="67" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
       <c r="B67" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+        <v>210</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="K67" s="20" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="41" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="37" t="s">
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="K68" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="K68" s="20" t="s">
+    </row>
+    <row r="69" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="40" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="K69" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="K69" s="20" t="s">
+    </row>
+    <row r="70" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="41" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="30" t="s">
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K70" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G70" s="37" t="s">
+    </row>
+    <row r="71" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="K70" s="20" t="s">
+      <c r="C71" s="46" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="37" t="s">
+      <c r="D71" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="18" t="s">
+      <c r="E71" s="46"/>
+      <c r="F71" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="K71" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="46"/>
+      <c r="F72" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="59"/>
+    </row>
+    <row r="73" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" s="46"/>
+      <c r="F73" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="59"/>
+    </row>
+    <row r="74" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="K71" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="K72" s="45" t="s">
+      <c r="E74" s="46"/>
+      <c r="F74" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="59"/>
+    </row>
+    <row r="75" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" s="46"/>
+      <c r="F75" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="59"/>
+    </row>
+    <row r="76" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="E76" s="46"/>
+      <c r="F76" s="47" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="46"/>
-    </row>
-    <row r="74" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="46"/>
-    </row>
-    <row r="75" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="49" t="s">
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="60"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="46"/>
-    </row>
-    <row r="76" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48" t="s">
+      <c r="J77" s="25"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="49" t="s">
+      <c r="C79" s="7" t="str">
+        <f>IF(COUNTIF(J12:J78,"合格")=36,"合格","不合格")</f>
+        <v>不合格</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="46"/>
-    </row>
-    <row r="77" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48" t="s">
+      <c r="E79" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="47"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="F79" s="32"/>
+      <c r="G79" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="J78" s="25"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="14" t="s">
+      <c r="H79" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C80" s="7" t="str">
-        <f>IF(COUNTIF(J12:J79,"合格")=36,"合格","不合格")</f>
-        <v>不合格</v>
-      </c>
-      <c r="D80" s="11" t="s">
+      <c r="I79" s="30"/>
+      <c r="J79" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="K79" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H80" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="I80" s="51"/>
-      <c r="J80" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K80" s="26" t="s">
-        <v>308</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A77"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J72:J77"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K72:K77"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J36"/>
+  <mergeCells count="148">
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="C45:E47"/>
     <mergeCell ref="C27:E30"/>
@@ -4435,9 +4255,133 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C43:E43"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:K82">
+  <conditionalFormatting sqref="A1:K81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>

--- a/config/project/board_120KW/BoardReport.xlsx
+++ b/config/project/board_120KW/BoardReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="311">
   <si>
     <t xml:space="preserve">TCCE </t>
   </si>
@@ -1464,6 +1464,35 @@
   </si>
   <si>
     <t>result110</t>
+  </si>
+  <si>
+    <t>GPRS功能</t>
+  </si>
+  <si>
+    <t>能连接、检测到SIM卡、上线、PING外网</t>
+  </si>
+  <si>
+    <t>result111</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>111</t>
+    </r>
   </si>
   <si>
     <t>LED板测试（disp）</t>
@@ -2060,110 +2089,110 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2484,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -2518,27 +2547,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="6"/>
@@ -2549,19 +2578,19 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
@@ -2577,71 +2606,71 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="62"/>
+      <c r="F7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="57"/>
+      <c r="J7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="58"/>
+      <c r="H8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="57"/>
+      <c r="J8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
@@ -2661,19 +2690,19 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="18" t="s">
         <v>27</v>
       </c>
@@ -2682,109 +2711,109 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="51" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="55" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="61"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="61"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="19" t="s">
         <v>49</v>
       </c>
@@ -2797,20 +2826,20 @@
       <c r="I16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="61"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="19" t="s">
         <v>55</v>
       </c>
@@ -2819,20 +2848,20 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="61"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="19" t="s">
         <v>59</v>
       </c>
@@ -2853,15 +2882,15 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
@@ -2874,19 +2903,19 @@
       <c r="I19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="43" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -2899,15 +2928,15 @@
       <c r="I20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="56"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="19" t="s">
         <v>75</v>
       </c>
@@ -2920,15 +2949,15 @@
       <c r="I21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="56"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="19" t="s">
         <v>79</v>
       </c>
@@ -2941,17 +2970,17 @@
       <c r="I22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="56"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="19" t="s">
         <v>84</v>
       </c>
@@ -2964,19 +2993,19 @@
       <c r="I23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="19" t="s">
         <v>90</v>
       </c>
@@ -2989,15 +3018,15 @@
       <c r="I24" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="56"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="19" t="s">
         <v>94</v>
       </c>
@@ -3010,15 +3039,15 @@
       <c r="I25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="56"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="19" t="s">
         <v>98</v>
       </c>
@@ -3031,19 +3060,19 @@
       <c r="I26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="56"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="19" t="s">
         <v>104</v>
       </c>
@@ -3056,19 +3085,19 @@
       <c r="I27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="43" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="19" t="s">
         <v>110</v>
       </c>
@@ -3081,15 +3110,15 @@
       <c r="I28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="56"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="19" t="s">
         <v>114</v>
       </c>
@@ -3102,15 +3131,15 @@
       <c r="I29" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="56"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="19" t="s">
         <v>118</v>
       </c>
@@ -3123,17 +3152,17 @@
       <c r="I30" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="56"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="40" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="19" t="s">
         <v>123</v>
       </c>
@@ -3146,19 +3175,19 @@
       <c r="I31" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="J31" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="43" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="19" t="s">
         <v>129</v>
       </c>
@@ -3171,15 +3200,15 @@
       <c r="I32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="56"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="19" t="s">
         <v>133</v>
       </c>
@@ -3192,15 +3221,15 @@
       <c r="I33" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="42"/>
-      <c r="K33" s="56"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="43"/>
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="19" t="s">
         <v>137</v>
       </c>
@@ -3213,19 +3242,19 @@
       <c r="I34" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="56"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="43"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="19" t="s">
         <v>143</v>
       </c>
@@ -3238,19 +3267,19 @@
       <c r="I35" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="56" t="s">
+      <c r="K35" s="43" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="19" t="s">
         <v>149</v>
       </c>
@@ -3263,17 +3292,17 @@
       <c r="I36" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="56"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="40" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="19" t="s">
         <v>143</v>
       </c>
@@ -3286,19 +3315,19 @@
       <c r="I37" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="42" t="s">
+      <c r="J37" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="56" t="s">
+      <c r="K37" s="43" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="19" t="s">
         <v>149</v>
       </c>
@@ -3311,19 +3340,19 @@
       <c r="I38" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J38" s="42"/>
-      <c r="K38" s="56"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="43"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="19" t="s">
         <v>162</v>
       </c>
@@ -3344,13 +3373,13 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="40" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="19" t="s">
         <v>169</v>
       </c>
@@ -3363,19 +3392,19 @@
       <c r="I40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="J40" s="51" t="s">
+      <c r="J40" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="54" t="s">
+      <c r="K40" s="41" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="19" t="s">
         <v>175</v>
       </c>
@@ -3388,15 +3417,15 @@
       <c r="I41" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="44"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="19" t="s">
         <v>179</v>
       </c>
@@ -3409,17 +3438,17 @@
       <c r="I42" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="55"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="40" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="19" t="s">
         <v>184</v>
       </c>
@@ -3440,15 +3469,15 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="48" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="19" t="s">
         <v>162</v>
       </c>
@@ -3469,13 +3498,13 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="40" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="19" t="s">
         <v>169</v>
       </c>
@@ -3488,19 +3517,19 @@
       <c r="I45" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J45" s="51" t="s">
+      <c r="J45" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="54" t="s">
+      <c r="K45" s="41" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="19" t="s">
         <v>175</v>
       </c>
@@ -3513,15 +3542,15 @@
       <c r="I46" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="J46" s="52"/>
-      <c r="K46" s="57"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="44"/>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="19" t="s">
         <v>179</v>
       </c>
@@ -3534,17 +3563,17 @@
       <c r="I47" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="J47" s="53"/>
-      <c r="K47" s="55"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="40" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="19" t="s">
         <v>184</v>
       </c>
@@ -3565,23 +3594,23 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="G49" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
       <c r="J49" s="18" t="s">
         <v>212</v>
       </c>
@@ -3590,23 +3619,23 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
       <c r="J50" s="18" t="s">
         <v>217</v>
       </c>
@@ -3615,23 +3644,23 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
       <c r="J51" s="18" t="s">
         <v>221</v>
       </c>
@@ -3640,25 +3669,25 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="37" t="s">
         <v>223</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
       <c r="J52" s="18" t="s">
         <v>227</v>
       </c>
@@ -3667,23 +3696,23 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
       <c r="J53" s="18" t="s">
         <v>229</v>
       </c>
@@ -3692,23 +3721,23 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
       <c r="J54" s="18" t="s">
         <v>231</v>
       </c>
@@ -3717,191 +3746,191 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="G55" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="42" t="s">
+      <c r="G55" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="K55" s="58" t="s">
+      <c r="K55" s="45" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="59"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="57" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="23" t="s">
         <v>240</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H57" s="65"/>
       <c r="I57" s="65"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="59"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="46"/>
     </row>
     <row r="58" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="60"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="47"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="42" t="s">
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="K59" s="56" t="s">
+      <c r="K59" s="43" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="40" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
       <c r="F60" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G60" s="41" t="s">
+      <c r="G60" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="56"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="43"/>
     </row>
     <row r="61" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
       <c r="F61" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="G61" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="42" t="s">
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="K61" s="56" t="s">
+      <c r="K61" s="43" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
       <c r="F62" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="56"/>
-    </row>
-    <row r="63" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="43"/>
+    </row>
+    <row r="63" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
       <c r="B63" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
       <c r="F63" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
       <c r="J63" s="18" t="s">
         <v>260</v>
       </c>
@@ -3909,74 +3938,74 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+    <row r="64" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
       <c r="B64" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
+      <c r="C64" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="41" t="s">
+      <c r="G64" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="K64" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
+      <c r="G65" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
       <c r="J65" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="41" t="s">
+      <c r="G66" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
       <c r="J66" s="18" t="s">
         <v>270</v>
       </c>
@@ -3984,253 +4013,404 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+    <row r="67" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
       <c r="B67" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
+        <v>272</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
       <c r="F67" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
+      <c r="G67" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
       <c r="J67" s="18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="K68" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
+      <c r="C69" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G69" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
+      <c r="G69" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
       <c r="J69" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="19" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C71" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="19" t="s">
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G70" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="46" t="s">
+      <c r="G71" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47" t="s">
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="K71" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="51" t="s">
+    </row>
+    <row r="72" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="K71" s="58" t="s">
+      <c r="C72" s="48" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="47" t="s">
+      <c r="E72" s="48"/>
+      <c r="F72" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="59"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K72" s="45" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="E73" s="46"/>
-      <c r="F73" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="59"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" s="48"/>
+      <c r="F73" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="46"/>
     </row>
     <row r="74" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="59"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" s="48"/>
+      <c r="F74" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="46"/>
     </row>
     <row r="75" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E75" s="46"/>
-      <c r="F75" s="47" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="48"/>
+      <c r="F75" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="46"/>
+    </row>
+    <row r="76" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="46"/>
+    </row>
+    <row r="77" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E77" s="48"/>
+      <c r="F77" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="59"/>
-    </row>
-    <row r="76" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="E76" s="46"/>
-      <c r="F76" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="60"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="J77" s="25"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="7" t="str">
-        <f>IF(COUNTIF(J12:J78,"合格")=36,"合格","不合格")</f>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="47"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="J78" s="25"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="7" t="str">
+        <f>IF(COUNTIF(J12:J79,"合格")=36,"合格","不合格")</f>
         <v>不合格</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="F79" s="32"/>
-      <c r="G79" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="I79" s="30"/>
-      <c r="J79" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="K79" s="26" t="s">
+      <c r="E80" s="50" t="s">
         <v>304</v>
       </c>
+      <c r="F80" s="50"/>
+      <c r="G80" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="H80" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="I80" s="51"/>
+      <c r="J80" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K80" s="26" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="150">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A77"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J72:J77"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K72:K77"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J36"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="C45:E47"/>
     <mergeCell ref="C27:E30"/>
@@ -4255,133 +4435,9 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C43:E43"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J71:J76"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:K81">
+  <conditionalFormatting sqref="A1:K82">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
